--- a/REGULAR/OJT/ESCAMILLAS,  EVELYN.xlsx
+++ b/REGULAR/OJT/ESCAMILLAS,  EVELYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="305">
   <si>
     <t>PERIOD</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>UT(1-0-00)</t>
+  </si>
+  <si>
+    <t>7/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1993,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A439" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B450" sqref="B450"/>
+      <selection pane="bottomLeft" activeCell="E451" sqref="E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>78.979999999999905</v>
+        <v>79.479999999999905</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2163,7 +2166,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>139.95799999999997</v>
+        <v>142.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11644,15 +11647,19 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="40"/>
+      <c r="A449" s="40">
+        <v>45047</v>
+      </c>
       <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D449" s="39"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
@@ -11660,15 +11667,19 @@
       <c r="K449" s="20"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="40"/>
+      <c r="A450" s="40">
+        <v>45078</v>
+      </c>
       <c r="B450" s="20"/>
-      <c r="C450" s="13"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D450" s="39"/>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
@@ -11676,10 +11687,16 @@
       <c r="K450" s="20"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="40"/>
-      <c r="B451" s="20"/>
+      <c r="A451" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C451" s="13"/>
-      <c r="D451" s="39"/>
+      <c r="D451" s="39">
+        <v>2</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13" t="str">
@@ -11689,7 +11706,9 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
+      <c r="K451" s="20" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>

--- a/REGULAR/OJT/ESCAMILLAS,  EVELYN.xlsx
+++ b/REGULAR/OJT/ESCAMILLAS,  EVELYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1991,9 +1991,9 @@
   <dimension ref="A2:K491"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A439" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A433" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="E451" sqref="E451"/>
+      <selection pane="bottomLeft" activeCell="E450" sqref="E450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>79.479999999999905</v>
+        <v>81.979999999999905</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2166,7 +2166,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.45799999999997</v>
+        <v>144.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11693,15 +11693,17 @@
       <c r="B451" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C451" s="13"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D451" s="39">
         <v>2</v>
       </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
@@ -11711,15 +11713,19 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="40"/>
+      <c r="A452" s="40">
+        <v>45139</v>
+      </c>
       <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
@@ -11727,7 +11733,9 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="40"/>
+      <c r="A453" s="40">
+        <v>45170</v>
+      </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
       <c r="D453" s="39"/>
